--- a/PortfolioTrader/Documentation/reqMktData.xlsx
+++ b/PortfolioTrader/Documentation/reqMktData.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\PortfolioTrader\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFAD27C-AE61-4EF0-AA32-597FF6A927E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E46E6A-39EA-48DD-8994-273ACB0A6FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -64,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +87,12 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -182,8 +199,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,101 +565,150 @@
         <v>5</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="6" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="6" t="s">
+      <c r="O5" s="14"/>
+      <c r="P5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="b">
+      <c r="A6" s="9" t="b">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="6" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="10" t="b">
+      <c r="L6" s="14"/>
+      <c r="M6" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="6" t="b">
+      <c r="N6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="6" t="b">
+      <c r="O6" s="14"/>
+      <c r="P6" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="10" t="b">
+      <c r="G7" s="14"/>
+      <c r="H7" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="6" t="b">
+      <c r="J7" s="14"/>
+      <c r="K7" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="7"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="b">
+      <c r="C8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="D8" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6" t="b">
+      <c r="E8" s="14"/>
+      <c r="F8" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
